--- a/GameMaster/RPGTale/Data/Data_Excel/OrderMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/OrderMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC13557-6159-4DBE-BB12-B31F0AC3528B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3F912-24AA-42BA-B35A-74DA50AA208D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1350" windowWidth="22020" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>OrderID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,14 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AppearConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisAppearConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OrderContent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rarity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,15 +89,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BGPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SpriteOutput/Order/PicBG/Order_Pic_BG_M001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderJsonConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:520,101:99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Config_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,26 +534,25 @@
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -566,27 +561,21 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>"OrderName_"&amp;A2</f>
@@ -597,10 +586,10 @@
         <v>OrderDesc_1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1">
         <v>10</v>
@@ -609,16 +598,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="1">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -643,30 +626,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/OrderMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/OrderMetaData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3F912-24AA-42BA-B35A-74DA50AA208D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5625D09D-EEDE-499F-97BD-55EF792E2CF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderData" sheetId="1" r:id="rId1"/>
-    <sheet name="OrderTypeData" sheetId="2" r:id="rId2"/>
+    <sheet name="OrderTypeData" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>OrderID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,52 +61,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Order/PicBG/Order_Pic_BG_M001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderJsonConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:520,101:99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Config_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName_Medical</t>
+  </si>
+  <si>
+    <t>TypeDesc_Medical</t>
+  </si>
+  <si>
+    <t>TypeName_Electronic</t>
+  </si>
+  <si>
+    <t>TypeDesc_Electronic</t>
+  </si>
+  <si>
+    <t>TypeDesc_Physics</t>
+  </si>
+  <si>
+    <t>Medical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TypeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
   </si>
   <si>
     <t>IconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/Order/PicBG/Order_Pic_BG_M001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderJsonConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100:520,101:99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order_Config_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Order/OrderTypeIcon/OrderType_Icon_001</t>
+  </si>
+  <si>
+    <t>Electronic</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Order/OrderTypeIcon/OrderType_Icon_002</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>TypeName_Physics</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Order/OrderTypeIcon/OrderType_Icon_003</t>
   </si>
 </sst>
 </file>
@@ -521,7 +557,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +567,7 @@
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
@@ -543,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -552,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -567,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -575,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>"OrderName_"&amp;A2</f>
@@ -586,22 +622,22 @@
         <v>OrderDesc_1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -612,48 +648,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316CE55-54C8-4524-AB6E-2261225F6863}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54F0F3B-F856-442B-9762-B5E5B5E04D44}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/OrderMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/OrderMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5625D09D-EEDE-499F-97BD-55EF792E2CF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E56B2-34A4-4FF4-BFCF-BB9CA83C43FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>OrderID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>SpriteOutput/Order/OrderTypeIcon/OrderType_Icon_003</t>
+  </si>
+  <si>
+    <t>OrganizationBelong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -554,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,12 +573,13 @@
     <col min="5" max="5" width="42.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,16 +602,19 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -630,13 +638,16 @@
       <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/OrderMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/OrderMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6E56B2-34A4-4FF4-BFCF-BB9CA83C43FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCBC262-E00B-4A5E-AF59-046D2E8BE820}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>OrderID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>OrganizationBelong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,6 +652,43 @@
         <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>"OrderName_"&amp;A3</f>
+        <v>OrderName_2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"OrderDesc_"&amp;A3</f>
+        <v>OrderDesc_2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
